--- a/xlsx/车臣语维基百科_intext.xlsx
+++ b/xlsx/车臣语维基百科_intext.xlsx
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_车臣语维基百科</t>
+    <t>政策_政策_维基百科_车臣语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%A6%E8%87%A3%E8%AF%AD</t>
